--- a/teaching/traditional_assets/database/data/guernsey/guernsey_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/guernsey/guernsey_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,122 +590,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.1175</v>
-      </c>
-      <c r="E2">
-        <v>0.5720000000000001</v>
-      </c>
       <c r="G2">
-        <v>0.6935576094618939</v>
+        <v>0.3078024337866857</v>
       </c>
       <c r="H2">
-        <v>0.6926451006501135</v>
+        <v>0.3078024337866857</v>
       </c>
       <c r="I2">
-        <v>0.7578588195443006</v>
+        <v>0.8885127808074939</v>
       </c>
       <c r="J2">
-        <v>0.7258603360524301</v>
+        <v>0.8885127808074939</v>
       </c>
       <c r="K2">
-        <v>356.591</v>
+        <v>20.77</v>
       </c>
       <c r="L2">
-        <v>0.6982670165269836</v>
+        <v>0.3716893342877594</v>
       </c>
       <c r="M2">
-        <v>78.74600000000001</v>
+        <v>5.45</v>
       </c>
       <c r="N2">
-        <v>0.02336690425462466</v>
+        <v>0.008882007822685788</v>
       </c>
       <c r="O2">
-        <v>0.220830026557036</v>
+        <v>0.2623976889744825</v>
       </c>
       <c r="P2">
-        <v>78.66</v>
+        <v>1.74</v>
       </c>
       <c r="Q2">
-        <v>0.02334138481534015</v>
+        <v>0.002835723598435463</v>
       </c>
       <c r="R2">
-        <v>0.2205888538970417</v>
+        <v>0.0837746750120366</v>
       </c>
       <c r="S2">
-        <v>0.08599999999999999</v>
+        <v>3.71</v>
       </c>
       <c r="T2">
-        <v>0.001092118964772814</v>
+        <v>0.6807339449541284</v>
       </c>
       <c r="U2">
-        <v>321.27</v>
+        <v>11.91</v>
       </c>
       <c r="V2">
-        <v>0.09533290998759636</v>
+        <v>0.01941003911342894</v>
       </c>
       <c r="W2">
-        <v>0.3955122155814197</v>
+        <v>-0.08720626631853785</v>
       </c>
       <c r="X2">
-        <v>0.05710831367316599</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y2">
-        <v>0.3384039019082537</v>
+        <v>-0.1224517624888416</v>
       </c>
       <c r="Z2">
-        <v>0.3820166735099409</v>
+        <v>0.1020127753980983</v>
       </c>
       <c r="AA2">
-        <v>-0.2315914489311164</v>
+        <v>0.06996754015453036</v>
       </c>
       <c r="AB2">
-        <v>0.05700263228775396</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC2">
-        <v>-0.2880039327997027</v>
+        <v>0.03462484751785066</v>
       </c>
       <c r="AD2">
-        <v>679.9</v>
+        <v>1.55</v>
       </c>
       <c r="AE2">
-        <v>2.393290175583067</v>
+        <v>0.02452904238618524</v>
       </c>
       <c r="AF2">
-        <v>682.2932901755831</v>
+        <v>1.574529042386185</v>
       </c>
       <c r="AG2">
-        <v>361.0232901755832</v>
+        <v>-10.33547095761381</v>
       </c>
       <c r="AH2">
-        <v>0.1683729702608532</v>
+        <v>0.002559483476725185</v>
       </c>
       <c r="AI2">
-        <v>0.2169458651333056</v>
+        <v>0.002555329647970363</v>
       </c>
       <c r="AJ2">
-        <v>0.09676305864597434</v>
+        <v>-0.01713256864947819</v>
       </c>
       <c r="AK2">
-        <v>0.1278536361660049</v>
+        <v>-0.01710421588702724</v>
       </c>
       <c r="AL2">
-        <v>40.146</v>
+        <v>0.041</v>
       </c>
       <c r="AM2">
-        <v>38.45</v>
+        <v>0.027</v>
       </c>
       <c r="AN2">
-        <v>1.602800598781221</v>
+        <v>0.1267893660531697</v>
       </c>
       <c r="AO2">
-        <v>9.636252677726299</v>
+        <v>1210.487804878049</v>
       </c>
       <c r="AP2">
-        <v>0.8510786081297118</v>
+        <v>-0.8454372971463243</v>
       </c>
       <c r="AQ2">
-        <v>10.06130039011703</v>
+        <v>1838.148148148148</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hipgnosis Songs Fund Limited (LSE:SONG)</t>
+          <t>Trian Investors 1 Limited (LSE:TI1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,94 +719,106 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.5560975609756097</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5560975609756097</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3666666666666666</v>
+        <v>0.9844444444444443</v>
       </c>
       <c r="J3">
-        <v>0.2892592592592592</v>
+        <v>0.9844444444444443</v>
       </c>
       <c r="K3">
-        <v>3.69</v>
+        <v>44.3</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.9844444444444443</v>
       </c>
       <c r="M3">
-        <v>3.16</v>
+        <v>5.45</v>
       </c>
       <c r="N3">
-        <v>0.00349634874972339</v>
+        <v>0.01257789060696977</v>
       </c>
       <c r="O3">
-        <v>0.8563685636856369</v>
+        <v>0.1230248306997743</v>
       </c>
       <c r="P3">
-        <v>3.16</v>
+        <v>1.74</v>
       </c>
       <c r="Q3">
-        <v>0.00349634874972339</v>
+        <v>0.004015693514885761</v>
       </c>
       <c r="R3">
-        <v>0.8563685636856369</v>
+        <v>0.03927765237020316</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.6807339449541284</v>
       </c>
       <c r="U3">
-        <v>81.5</v>
+        <v>2.16</v>
       </c>
       <c r="V3">
-        <v>0.09017481743748618</v>
+        <v>0.004984998846065082</v>
+      </c>
+      <c r="W3">
+        <v>0.1252119841718485</v>
       </c>
       <c r="X3">
-        <v>0.05710831367316599</v>
+        <v>0.03524549617030377</v>
+      </c>
+      <c r="Y3">
+        <v>0.08996648800154472</v>
+      </c>
+      <c r="Z3">
+        <v>0.1283221170297707</v>
+      </c>
+      <c r="AA3">
+        <v>0.1263259952093076</v>
       </c>
       <c r="AB3">
-        <v>0.05700263228775396</v>
+        <v>0.03524549617030377</v>
+      </c>
+      <c r="AC3">
+        <v>0.09108049903900386</v>
       </c>
       <c r="AD3">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-64.59999999999999</v>
+        <v>-2.16</v>
       </c>
       <c r="AH3">
-        <v>0.01835559900076029</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.03407945150231902</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.07697807435653002</v>
+        <v>-0.005009973558472886</v>
       </c>
       <c r="AK3">
-        <v>-0.1558880308880309</v>
+        <v>-0.005664236639219595</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>2.470760233918129</v>
-      </c>
-      <c r="AP3">
-        <v>-9.444444444444445</v>
+        <v>-0.014</v>
+      </c>
+      <c r="AQ3">
+        <v>-3164.285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Burford Capital Limited (AIM:BUR)</t>
+          <t>CEIBA Investments Limited (LSE:CBA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -831,122 +837,113 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.5720000000000001</v>
-      </c>
       <c r="G4">
-        <v>0.6946997848621161</v>
+        <v>1.05521472392638</v>
       </c>
       <c r="H4">
-        <v>0.6946997848621161</v>
+        <v>1.05521472392638</v>
       </c>
       <c r="I4">
-        <v>0.8069626442401722</v>
+        <v>0.7435640608296173</v>
       </c>
       <c r="J4">
-        <v>0.8069626442401722</v>
+        <v>0.7435640608296173</v>
       </c>
       <c r="K4">
-        <v>377.2</v>
+        <v>-16.7</v>
       </c>
       <c r="L4">
-        <v>0.7377273616272246</v>
+        <v>-1.024539877300613</v>
       </c>
       <c r="M4">
-        <v>27.3</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01324085750315258</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.07237539766702016</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>27.3</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01324085750315258</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.07237539766702016</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>232.5</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="V4">
-        <v>0.1127655446697061</v>
+        <v>0.06051637279596977</v>
       </c>
       <c r="W4">
-        <v>0.3955122155814197</v>
+        <v>-0.08720626631853785</v>
       </c>
       <c r="X4">
-        <v>0.06810071965930146</v>
+        <v>0.03550275018314547</v>
       </c>
       <c r="Y4">
-        <v>0.3274114959221182</v>
+        <v>-0.1227090165016833</v>
       </c>
       <c r="Z4">
-        <v>0.4147469175859831</v>
+        <v>0.09409752816249001</v>
       </c>
       <c r="AA4">
-        <v>0.3346852693056457</v>
+        <v>0.06996754015453036</v>
       </c>
       <c r="AB4">
-        <v>0.06665468559700044</v>
+        <v>0.0353426926366797</v>
       </c>
       <c r="AC4">
-        <v>0.2680305837086453</v>
+        <v>0.03462484751785066</v>
       </c>
       <c r="AD4">
-        <v>647.6</v>
+        <v>1.55</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.02452904238618524</v>
       </c>
       <c r="AF4">
-        <v>647.6</v>
+        <v>1.574529042386185</v>
       </c>
       <c r="AG4">
-        <v>415.1</v>
+        <v>-8.035470957613814</v>
       </c>
       <c r="AH4">
-        <v>0.2390197091606998</v>
+        <v>0.009817824886457157</v>
       </c>
       <c r="AI4">
-        <v>0.2924230109274813</v>
+        <v>0.007393039202696499</v>
       </c>
       <c r="AJ4">
-        <v>0.1675885179054463</v>
+        <v>-0.05329815314419686</v>
       </c>
       <c r="AK4">
-        <v>0.2094243479138288</v>
+        <v>-0.03951264753716723</v>
       </c>
       <c r="AL4">
-        <v>39.4</v>
+        <v>0.041</v>
       </c>
       <c r="AM4">
-        <v>39.4</v>
+        <v>0.041</v>
       </c>
       <c r="AN4">
-        <v>1.532418362517747</v>
+        <v>0.1267893660531697</v>
       </c>
       <c r="AO4">
-        <v>10.47208121827411</v>
+        <v>295.1219512195122</v>
       </c>
       <c r="AP4">
-        <v>0.9822527212494084</v>
+        <v>-0.6572982378416208</v>
       </c>
       <c r="AQ4">
-        <v>10.47208121827411</v>
+        <v>295.1219512195122</v>
       </c>
     </row>
     <row r="5">
@@ -957,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sherborne Investors (Guernsey) B Limited (LSE:SIGB)</t>
+          <t>Fastforward Innovations Limited (AIM:FFWD)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -972,67 +969,64 @@
         <v>-0</v>
       </c>
       <c r="I5">
-        <v>1.073394495412844</v>
+        <v>1.249077490774908</v>
       </c>
       <c r="J5">
-        <v>1.073394495412844</v>
+        <v>1.249077490774908</v>
       </c>
       <c r="K5">
-        <v>-17.2</v>
+        <v>-6.83</v>
       </c>
       <c r="L5">
-        <v>0.7889908256880733</v>
+        <v>1.260147601476015</v>
       </c>
       <c r="M5">
-        <v>48.2</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>1.278514588859416</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>-2.802325581395349</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>48.2</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>1.278514588859416</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>-2.802325581395349</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>1.47</v>
+        <v>0.14</v>
       </c>
       <c r="V5">
-        <v>0.0389920424403183</v>
+        <v>0.006511627906976744</v>
       </c>
       <c r="W5">
-        <v>-0.1625708884688091</v>
+        <v>-0.2721115537848606</v>
       </c>
       <c r="X5">
-        <v>0.05641248386858631</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y5">
-        <v>-0.2189833723373954</v>
+        <v>-0.3073570499551643</v>
       </c>
       <c r="Z5">
-        <v>-0.2157561361836897</v>
+        <v>-0.2270632593213238</v>
       </c>
       <c r="AA5">
-        <v>-0.2315914489311164</v>
+        <v>-0.2836196062002513</v>
       </c>
       <c r="AB5">
-        <v>0.05641248386858631</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC5">
-        <v>-0.2880039327997027</v>
+        <v>-0.3188651023705551</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1044,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-1.47</v>
+        <v>-0.14</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1053,233 +1047,16 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.04057410985371239</v>
+        <v>-0.006554307116104869</v>
       </c>
       <c r="AK5">
-        <v>-0.02886314549381504</v>
+        <v>-0.007157464212678937</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Guernsey</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LumX Group Limited (SWX:LUMX)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>-0.262</v>
-      </c>
-      <c r="G6">
-        <v>-0.8844594594594594</v>
-      </c>
-      <c r="H6">
-        <v>-0.9369369369369369</v>
-      </c>
-      <c r="I6">
-        <v>-0.6715831120626815</v>
-      </c>
-      <c r="J6">
-        <v>-0.6715831120626815</v>
-      </c>
-      <c r="K6">
-        <v>-8.039999999999999</v>
-      </c>
-      <c r="L6">
-        <v>-0.9054054054054053</v>
-      </c>
-      <c r="M6">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="N6">
-        <v>0.01038647342995169</v>
-      </c>
-      <c r="O6">
-        <v>-0.01069651741293532</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>2.68</v>
-      </c>
-      <c r="V6">
-        <v>0.3236714975845411</v>
-      </c>
-      <c r="W6">
-        <v>-0.432258064516129</v>
-      </c>
-      <c r="X6">
-        <v>0.1363801799589197</v>
-      </c>
-      <c r="Y6">
-        <v>-0.5686382444750486</v>
-      </c>
-      <c r="Z6">
-        <v>2.999705931953434</v>
-      </c>
-      <c r="AA6">
-        <v>-2.014551845054174</v>
-      </c>
-      <c r="AB6">
-        <v>0.08429048939229913</v>
-      </c>
-      <c r="AC6">
-        <v>-2.098842334446473</v>
-      </c>
-      <c r="AD6">
-        <v>15.4</v>
-      </c>
-      <c r="AE6">
-        <v>2.393290175583067</v>
-      </c>
-      <c r="AF6">
-        <v>17.79329017558307</v>
-      </c>
-      <c r="AG6">
-        <v>15.11329017558307</v>
-      </c>
-      <c r="AH6">
-        <v>0.6824336344112797</v>
-      </c>
-      <c r="AI6">
-        <v>0.6288872755752728</v>
-      </c>
-      <c r="AJ6">
-        <v>0.6460523535657966</v>
-      </c>
-      <c r="AK6">
-        <v>0.5900565710995785</v>
-      </c>
-      <c r="AL6">
-        <v>0.746</v>
-      </c>
-      <c r="AM6">
-        <v>0.71</v>
-      </c>
-      <c r="AN6">
-        <v>-2.936129647283127</v>
-      </c>
-      <c r="AO6">
-        <v>-8.2171581769437</v>
-      </c>
-      <c r="AP6">
-        <v>-2.881466191722225</v>
-      </c>
-      <c r="AQ6">
-        <v>-8.633802816901408</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Guernsey</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Trian Investors 1 Limited (LSE:TI1)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K7">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="M7">
-        <v>-0</v>
-      </c>
-      <c r="N7">
-        <v>-0</v>
-      </c>
-      <c r="O7">
-        <v>-0</v>
-      </c>
-      <c r="P7">
-        <v>-0</v>
-      </c>
-      <c r="Q7">
-        <v>-0</v>
-      </c>
-      <c r="R7">
-        <v>-0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>3.12</v>
-      </c>
-      <c r="V7">
-        <v>0.008705357142857143</v>
-      </c>
-      <c r="X7">
-        <v>0.05641248386858631</v>
-      </c>
-      <c r="AB7">
-        <v>0.05641248386858631</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>-3.12</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>-0.008781805899572169</v>
-      </c>
-      <c r="AK7">
-        <v>-0.008897000114064104</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>-1.66</v>
-      </c>
-      <c r="AQ7">
-        <v>0.4355421686746988</v>
       </c>
     </row>
   </sheetData>
